--- a/Jogos_do_Dia/2023-02-05_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-05_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -610,8 +610,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>8595</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
       </c>
       <c r="B2" s="2" t="n">
         <v>44961.89583333334</v>
@@ -678,7 +680,7 @@
         <v>1.5</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -718,8 +720,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>8595</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
       </c>
       <c r="B3" s="2" t="n">
         <v>44961.89583333334</v>
@@ -786,7 +790,7 @@
         <v>1.57</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -848,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="G4" t="n">
-        <v>3.4</v>
+        <v>3.47</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.79</v>
       </c>
       <c r="I4" t="n">
         <v>1.05</v>
@@ -869,10 +873,10 @@
         <v>3.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="N4" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="O4" t="n">
         <v>1.4</v>
@@ -896,10 +900,10 @@
         <v>1.7</v>
       </c>
       <c r="V4" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="X4" t="n">
         <v>1.26</v>
@@ -958,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G5" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H5" t="n">
-        <v>2.25</v>
+        <v>2.24</v>
       </c>
       <c r="I5" t="n">
         <v>1.04</v>
@@ -979,10 +983,10 @@
         <v>4.22</v>
       </c>
       <c r="M5" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="N5" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -1006,10 +1010,10 @@
         <v>1.36</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="W5" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="X5" t="n">
         <v>1.2</v>
@@ -1068,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.22</v>
       </c>
       <c r="I6" t="n">
         <v>1.07</v>
@@ -1116,10 +1120,10 @@
         <v>1.7</v>
       </c>
       <c r="V6" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="X6" t="n">
         <v>1.78</v>
@@ -1178,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="G7" t="n">
-        <v>5.5</v>
+        <v>5.57</v>
       </c>
       <c r="H7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="I7" t="n">
         <v>1.02</v>
@@ -1199,10 +1203,10 @@
         <v>4.93</v>
       </c>
       <c r="M7" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="N7" t="n">
-        <v>2.4</v>
+        <v>2.57</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
@@ -1226,10 +1230,10 @@
         <v>1.03</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="W7" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="X7" t="n">
         <v>1.55</v>
@@ -1336,10 +1340,10 @@
         <v>2.45</v>
       </c>
       <c r="V8" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="X8" t="n">
         <v>1.68</v>
@@ -1398,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.15</v>
+        <v>1.93</v>
       </c>
       <c r="G9" t="n">
-        <v>3.1</v>
+        <v>3.23</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.49</v>
       </c>
       <c r="I9" t="n">
         <v>1.03</v>
@@ -1419,10 +1423,10 @@
         <v>2.98</v>
       </c>
       <c r="M9" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="N9" t="n">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="O9" t="n">
         <v>1.44</v>
@@ -1446,10 +1450,10 @@
         <v>1.7</v>
       </c>
       <c r="V9" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="W9" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="X9" t="n">
         <v>1.79</v>
@@ -1508,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8.5</v>
+        <v>6.46</v>
       </c>
       <c r="G10" t="n">
-        <v>4.6</v>
+        <v>4.57</v>
       </c>
       <c r="H10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="I10" t="n">
         <v>1.03</v>
@@ -1529,10 +1533,10 @@
         <v>4.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="N10" t="n">
-        <v>2.23</v>
+        <v>1.91</v>
       </c>
       <c r="O10" t="n">
         <v>1.3</v>
@@ -1556,10 +1560,10 @@
         <v>1.09</v>
       </c>
       <c r="V10" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="W10" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="X10" t="n">
         <v>1.5</v>
@@ -1618,10 +1622,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>13</v>
+        <v>12.45</v>
       </c>
       <c r="G11" t="n">
-        <v>6.5</v>
+        <v>5.03</v>
       </c>
       <c r="H11" t="n">
         <v>1.2</v>
@@ -1639,10 +1643,10 @@
         <v>5.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="N11" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="O11" t="n">
         <v>1.22</v>
@@ -1666,10 +1670,10 @@
         <v>1.03</v>
       </c>
       <c r="V11" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="W11" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="X11" t="n">
         <v>1.13</v>
@@ -1728,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.2</v>
+        <v>4.13</v>
       </c>
       <c r="G12" t="n">
-        <v>3.6</v>
+        <v>4.03</v>
       </c>
       <c r="H12" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="I12" t="n">
         <v>1.03</v>
@@ -1749,10 +1753,10 @@
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="N12" t="n">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="O12" t="n">
         <v>1.35</v>
@@ -1776,10 +1780,10 @@
         <v>1.24</v>
       </c>
       <c r="V12" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="W12" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="X12" t="n">
         <v>1.33</v>
@@ -1838,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G13" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="H13" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1886,10 +1890,10 @@
         <v>1.17</v>
       </c>
       <c r="V13" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="W13" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="X13" t="n">
         <v>1.56</v>
@@ -1910,7 +1914,7 @@
         <v>1.51</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE13" t="n">
         <v>1.29</v>
@@ -1948,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="G14" t="n">
         <v>3.5</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
         <v>1.01</v>
@@ -1969,10 +1973,10 @@
         <v>3.6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="N14" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="O14" t="n">
         <v>1.36</v>
@@ -1996,10 +2000,10 @@
         <v>1.74</v>
       </c>
       <c r="V14" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="W14" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="X14" t="n">
         <v>2.11</v>
@@ -2058,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.4</v>
+        <v>3.32</v>
       </c>
       <c r="G15" t="n">
-        <v>3.5</v>
+        <v>3.66</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -2082,7 +2086,7 @@
         <v>1.66</v>
       </c>
       <c r="N15" t="n">
-        <v>2.23</v>
+        <v>2.1</v>
       </c>
       <c r="O15" t="n">
         <v>1.33</v>
@@ -2106,10 +2110,10 @@
         <v>1.29</v>
       </c>
       <c r="V15" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="W15" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="X15" t="n">
         <v>1.64</v>
@@ -2168,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="G16" t="n">
-        <v>3.5</v>
+        <v>3.37</v>
       </c>
       <c r="H16" t="n">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="I16" t="n">
         <v>1.03</v>
@@ -2189,10 +2193,10 @@
         <v>3.8</v>
       </c>
       <c r="M16" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="N16" t="n">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="O16" t="n">
         <v>1.33</v>
@@ -2216,10 +2220,10 @@
         <v>1.43</v>
       </c>
       <c r="V16" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="W16" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="X16" t="n">
         <v>1.61</v>
@@ -2278,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="G17" t="n">
-        <v>3.3</v>
+        <v>3.24</v>
       </c>
       <c r="H17" t="n">
-        <v>2.6</v>
+        <v>3.14</v>
       </c>
       <c r="I17" t="n">
         <v>1.04</v>
@@ -2326,10 +2330,10 @@
         <v>1.48</v>
       </c>
       <c r="V17" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="W17" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="X17" t="n">
         <v>1.73</v>
@@ -2388,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.49</v>
+        <v>2.64</v>
       </c>
       <c r="G18" t="n">
-        <v>3.05</v>
+        <v>2.73</v>
       </c>
       <c r="H18" t="n">
-        <v>2.55</v>
+        <v>2.71</v>
       </c>
       <c r="I18" t="n">
         <v>1.08</v>
@@ -2436,10 +2440,10 @@
         <v>1.4</v>
       </c>
       <c r="V18" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="W18" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="X18" t="n">
         <v>0.9399999999999999</v>
@@ -2498,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.09</v>
+        <v>2.01</v>
       </c>
       <c r="G19" t="n">
-        <v>2.91</v>
+        <v>2.78</v>
       </c>
       <c r="H19" t="n">
-        <v>3.87</v>
+        <v>3.86</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2519,22 +2523,22 @@
         <v>2.5</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2546,10 +2550,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="W19" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="X19" t="n">
         <v>1.38</v>
@@ -2586,8 +2590,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>8937</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
       </c>
       <c r="B20" s="2" t="n">
         <v>44962.40625</v>
@@ -2606,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.68</v>
+        <v>2.4</v>
       </c>
       <c r="G20" t="n">
-        <v>2.89</v>
+        <v>3.1</v>
       </c>
       <c r="H20" t="n">
-        <v>2.85</v>
+        <v>2.63</v>
       </c>
       <c r="I20" t="n">
         <v>1.09</v>
@@ -2627,10 +2633,10 @@
         <v>2.6</v>
       </c>
       <c r="M20" t="n">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="N20" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.53</v>
@@ -2657,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2716,10 +2722,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.05</v>
+        <v>2.13</v>
       </c>
       <c r="G21" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="H21" t="n">
         <v>3.25</v>
@@ -2737,10 +2743,10 @@
         <v>3.65</v>
       </c>
       <c r="M21" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="N21" t="n">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="O21" t="n">
         <v>1.4</v>
@@ -2764,10 +2770,10 @@
         <v>1.64</v>
       </c>
       <c r="V21" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W21" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="X21" t="n">
         <v>1.49</v>
@@ -2826,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="G22" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="H22" t="n">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="I22" t="n">
         <v>1.04</v>
@@ -2847,10 +2853,10 @@
         <v>2.79</v>
       </c>
       <c r="M22" t="n">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="N22" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="O22" t="n">
         <v>1.5</v>
@@ -2874,10 +2880,10 @@
         <v>1.35</v>
       </c>
       <c r="V22" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="W22" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="X22" t="n">
         <v>1.51</v>
@@ -2936,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5.5</v>
+        <v>5.51</v>
       </c>
       <c r="G23" t="n">
-        <v>3.6</v>
+        <v>3.51</v>
       </c>
       <c r="H23" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="I23" t="n">
         <v>1.07</v>
@@ -2957,10 +2963,10 @@
         <v>3.1</v>
       </c>
       <c r="M23" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="N23" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="O23" t="n">
         <v>1.44</v>
@@ -2984,10 +2990,10 @@
         <v>1.17</v>
       </c>
       <c r="V23" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="W23" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="X23" t="n">
         <v>1.32</v>
@@ -3046,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.6</v>
+        <v>2.34</v>
       </c>
       <c r="G24" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H24" t="n">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="I24" t="n">
         <v>1.02</v>
@@ -3067,10 +3073,10 @@
         <v>3.8</v>
       </c>
       <c r="M24" t="n">
-        <v>1.84</v>
+        <v>1.64</v>
       </c>
       <c r="N24" t="n">
-        <v>1.92</v>
+        <v>2.18</v>
       </c>
       <c r="O24" t="n">
         <v>1.33</v>
@@ -3094,10 +3100,10 @@
         <v>1.55</v>
       </c>
       <c r="V24" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="W24" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="X24" t="n">
         <v>1.54</v>
@@ -3156,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="G25" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H25" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="I25" t="n">
         <v>1.02</v>
@@ -3177,10 +3183,10 @@
         <v>4.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="N25" t="n">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="O25" t="n">
         <v>1.28</v>
@@ -3189,10 +3195,10 @@
         <v>3.48</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R25" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S25" t="n">
         <v>1.25</v>
@@ -3204,10 +3210,10 @@
         <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="W25" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="X25" t="n">
         <v>1.73</v>
@@ -3266,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="G26" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H26" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="I26" t="n">
         <v>1.04</v>
@@ -3287,10 +3293,10 @@
         <v>3.8</v>
       </c>
       <c r="M26" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="N26" t="n">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="O26" t="n">
         <v>1.37</v>
@@ -3314,10 +3320,10 @@
         <v>1.47</v>
       </c>
       <c r="V26" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="W26" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="X26" t="n">
         <v>1.81</v>
@@ -3376,13 +3382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="G27" t="n">
-        <v>3.5</v>
+        <v>3.49</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>3.07</v>
       </c>
       <c r="I27" t="n">
         <v>1.02</v>
@@ -3397,10 +3403,10 @@
         <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="N27" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="O27" t="n">
         <v>1.33</v>
@@ -3424,10 +3430,10 @@
         <v>1.71</v>
       </c>
       <c r="V27" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="W27" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X27" t="n">
         <v>2.55</v>
@@ -3486,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="G28" t="n">
-        <v>3.25</v>
+        <v>3.43</v>
       </c>
       <c r="H28" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="I28" t="n">
         <v>1.04</v>
@@ -3507,10 +3513,10 @@
         <v>3.32</v>
       </c>
       <c r="M28" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="N28" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="O28" t="n">
         <v>1.4</v>
@@ -3534,10 +3540,10 @@
         <v>1.55</v>
       </c>
       <c r="V28" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W28" t="n">
         <v>1</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.11</v>
       </c>
       <c r="X28" t="n">
         <v>1.61</v>
@@ -3596,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>8.4</v>
+        <v>12</v>
       </c>
       <c r="G29" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="H29" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="I29" t="n">
         <v>1.04</v>
@@ -3617,10 +3623,10 @@
         <v>3.3</v>
       </c>
       <c r="M29" t="n">
-        <v>1.99</v>
+        <v>1.76</v>
       </c>
       <c r="N29" t="n">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="O29" t="n">
         <v>1.4</v>
@@ -3644,10 +3650,10 @@
         <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="W29" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="X29" t="n">
         <v>1.51</v>
@@ -3706,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>3.59</v>
       </c>
       <c r="G30" t="n">
-        <v>3.1</v>
+        <v>3.01</v>
       </c>
       <c r="H30" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="I30" t="n">
         <v>1.09</v>
@@ -3727,10 +3733,10 @@
         <v>2.55</v>
       </c>
       <c r="M30" t="n">
-        <v>2.45</v>
+        <v>2.19</v>
       </c>
       <c r="N30" t="n">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="O30" t="n">
         <v>1.5</v>
@@ -3754,10 +3760,10 @@
         <v>1.2</v>
       </c>
       <c r="V30" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="W30" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="X30" t="n">
         <v>1.31</v>
@@ -3816,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="G31" t="n">
-        <v>3.9</v>
+        <v>3.73</v>
       </c>
       <c r="H31" t="n">
-        <v>6.5</v>
+        <v>5.92</v>
       </c>
       <c r="I31" t="n">
         <v>1.05</v>
@@ -3864,10 +3870,10 @@
         <v>2.5</v>
       </c>
       <c r="V31" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="W31" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="X31" t="n">
         <v>2.23</v>
@@ -3926,13 +3932,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="G32" t="n">
         <v>3.1</v>
       </c>
       <c r="H32" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="I32" t="n">
         <v>1.08</v>
@@ -3947,10 +3953,10 @@
         <v>2.62</v>
       </c>
       <c r="M32" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="N32" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="O32" t="n">
         <v>1.5</v>
@@ -3959,10 +3965,10 @@
         <v>2.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R32" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S32" t="n">
         <v>1.25</v>
@@ -3974,10 +3980,10 @@
         <v>1.73</v>
       </c>
       <c r="V32" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="W32" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="X32" t="n">
         <v>1.38</v>
@@ -3989,13 +3995,13 @@
         <v>2.51</v>
       </c>
       <c r="AA32" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AB32" t="n">
-        <v>8.300000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>3.34</v>
+        <v>3.54</v>
       </c>
       <c r="AD32" t="n">
         <v>1.44</v>
@@ -4010,7 +4016,7 @@
         <v>3.14</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="33">
@@ -4036,13 +4042,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.75</v>
+        <v>2.51</v>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>3.34</v>
       </c>
       <c r="H33" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I33" t="n">
         <v>1.1</v>
@@ -4057,10 +4063,10 @@
         <v>2.7</v>
       </c>
       <c r="M33" t="n">
-        <v>2.28</v>
+        <v>2.43</v>
       </c>
       <c r="N33" t="n">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="O33" t="n">
         <v>1.55</v>
@@ -4084,10 +4090,10 @@
         <v>1.47</v>
       </c>
       <c r="V33" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="W33" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="X33" t="n">
         <v>1.41</v>
@@ -4146,13 +4152,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.4</v>
+        <v>3.17</v>
       </c>
       <c r="G34" t="n">
-        <v>3.25</v>
+        <v>3.44</v>
       </c>
       <c r="H34" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="I34" t="n">
         <v>1.07</v>
@@ -4194,10 +4200,10 @@
         <v>1.38</v>
       </c>
       <c r="V34" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="W34" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="X34" t="n">
         <v>1.62</v>
@@ -4256,13 +4262,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="G35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H35" t="n">
         <v>3.4</v>
-      </c>
-      <c r="H35" t="n">
-        <v>3.7</v>
       </c>
       <c r="I35" t="n">
         <v>1.06</v>
@@ -4277,10 +4283,10 @@
         <v>3.45</v>
       </c>
       <c r="M35" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="N35" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="O35" t="n">
         <v>1.42</v>
@@ -4304,10 +4310,10 @@
         <v>1.88</v>
       </c>
       <c r="V35" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="W35" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="X35" t="n">
         <v>1.52</v>
@@ -4366,13 +4372,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G36" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H36" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="I36" t="n">
         <v>1.07</v>
@@ -4387,10 +4393,10 @@
         <v>3.25</v>
       </c>
       <c r="M36" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="N36" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="O36" t="n">
         <v>1.4</v>
@@ -4414,10 +4420,10 @@
         <v>1.8</v>
       </c>
       <c r="V36" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="W36" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="X36" t="n">
         <v>1.5</v>
@@ -4476,13 +4482,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.8</v>
+        <v>2.56</v>
       </c>
       <c r="G37" t="n">
-        <v>3.2</v>
+        <v>3.22</v>
       </c>
       <c r="H37" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="I37" t="n">
         <v>1.05</v>
@@ -4497,10 +4503,10 @@
         <v>3.3</v>
       </c>
       <c r="M37" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="N37" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="O37" t="n">
         <v>1.42</v>
@@ -4524,10 +4530,10 @@
         <v>1.44</v>
       </c>
       <c r="V37" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="W37" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="X37" t="n">
         <v>1.26</v>
@@ -4548,7 +4554,7 @@
         <v>1.95</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE37" t="n">
         <v>1.3</v>
@@ -4586,13 +4592,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4.4</v>
+        <v>4.34</v>
       </c>
       <c r="G38" t="n">
-        <v>3.7</v>
+        <v>3.81</v>
       </c>
       <c r="H38" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="I38" t="n">
         <v>1.01</v>
@@ -4610,7 +4616,7 @@
         <v>1.64</v>
       </c>
       <c r="N38" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="O38" t="n">
         <v>1.32</v>
@@ -4634,10 +4640,10 @@
         <v>1.13</v>
       </c>
       <c r="V38" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="W38" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="X38" t="n">
         <v>1.59</v>
@@ -4658,7 +4664,7 @@
         <v>1.39</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE38" t="n">
         <v>1.29</v>
@@ -4696,13 +4702,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.38</v>
+        <v>2.33</v>
       </c>
       <c r="G39" t="n">
-        <v>3.2</v>
+        <v>3.21</v>
       </c>
       <c r="H39" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="I39" t="n">
         <v>1.01</v>
@@ -4717,10 +4723,10 @@
         <v>3.55</v>
       </c>
       <c r="M39" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="N39" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="O39" t="n">
         <v>1.36</v>
@@ -4744,10 +4750,10 @@
         <v>1.55</v>
       </c>
       <c r="V39" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="W39" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="X39" t="n">
         <v>1.53</v>
@@ -4806,13 +4812,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="G40" t="n">
-        <v>3.2</v>
+        <v>3.07</v>
       </c>
       <c r="H40" t="n">
-        <v>3.4</v>
+        <v>3.21</v>
       </c>
       <c r="I40" t="n">
         <v>1.07</v>
@@ -4827,10 +4833,10 @@
         <v>3.1</v>
       </c>
       <c r="M40" t="n">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="N40" t="n">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="O40" t="n">
         <v>1.44</v>
@@ -4854,10 +4860,10 @@
         <v>1.65</v>
       </c>
       <c r="V40" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="W40" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="X40" t="n">
         <v>1.46</v>
@@ -4916,13 +4922,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="G41" t="n">
-        <v>3.3</v>
+        <v>3.32</v>
       </c>
       <c r="H41" t="n">
-        <v>2.7</v>
+        <v>2.61</v>
       </c>
       <c r="I41" t="n">
         <v>1.06</v>
@@ -4937,10 +4943,10 @@
         <v>3.6</v>
       </c>
       <c r="M41" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="N41" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="O41" t="n">
         <v>1.4</v>
@@ -4964,10 +4970,10 @@
         <v>1.46</v>
       </c>
       <c r="V41" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="W41" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="X41" t="n">
         <v>1.47</v>
@@ -5026,13 +5032,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.6</v>
+        <v>2.53</v>
       </c>
       <c r="G42" t="n">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="H42" t="n">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="I42" t="n">
         <v>1.05</v>
@@ -5047,10 +5053,10 @@
         <v>3.6</v>
       </c>
       <c r="M42" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="N42" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="O42" t="n">
         <v>1.37</v>
@@ -5074,10 +5080,10 @@
         <v>1.52</v>
       </c>
       <c r="V42" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="W42" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="X42" t="n">
         <v>1.83</v>
@@ -5136,13 +5142,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.7</v>
+        <v>2.56</v>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="H43" t="n">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="I43" t="n">
         <v>1.07</v>
@@ -5157,10 +5163,10 @@
         <v>3.1</v>
       </c>
       <c r="M43" t="n">
-        <v>2.17</v>
+        <v>1.94</v>
       </c>
       <c r="N43" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="O43" t="n">
         <v>1.44</v>
@@ -5184,10 +5190,10 @@
         <v>1.45</v>
       </c>
       <c r="V43" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="W43" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="X43" t="n">
         <v>1.49</v>
@@ -5246,13 +5252,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="G44" t="n">
-        <v>3.5</v>
+        <v>3.71</v>
       </c>
       <c r="H44" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I44" t="n">
         <v>1.03</v>
@@ -5267,10 +5273,10 @@
         <v>4.33</v>
       </c>
       <c r="M44" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="N44" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O44" t="n">
         <v>1.33</v>
@@ -5294,10 +5300,10 @@
         <v>1.78</v>
       </c>
       <c r="V44" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="W44" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="X44" t="n">
         <v>1.73</v>
@@ -5356,13 +5362,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="G45" t="n">
-        <v>3.4</v>
+        <v>3.24</v>
       </c>
       <c r="H45" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I45" t="n">
         <v>1.03</v>
@@ -5377,10 +5383,10 @@
         <v>4</v>
       </c>
       <c r="M45" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="N45" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="O45" t="n">
         <v>1.33</v>
@@ -5404,10 +5410,10 @@
         <v>1.65</v>
       </c>
       <c r="V45" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="W45" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="X45" t="n">
         <v>1.93</v>
@@ -5466,10 +5472,10 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="G46" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="H46" t="n">
         <v>3.3</v>
@@ -5487,10 +5493,10 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="N46" t="n">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -5514,10 +5520,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="W46" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="X46" t="n">
         <v>1.28</v>
@@ -5576,13 +5582,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.25</v>
+        <v>1.72</v>
       </c>
       <c r="G47" t="n">
-        <v>4.6</v>
+        <v>2.52</v>
       </c>
       <c r="H47" t="n">
-        <v>12</v>
+        <v>7.52</v>
       </c>
       <c r="I47" t="n">
         <v>1.05</v>
@@ -5597,10 +5603,10 @@
         <v>3.25</v>
       </c>
       <c r="M47" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="N47" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="O47" t="n">
         <v>1.44</v>
@@ -5624,10 +5630,10 @@
         <v>3.3</v>
       </c>
       <c r="V47" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="W47" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="X47" t="n">
         <v>1.51</v>
@@ -5686,10 +5692,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="G48" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="H48" t="n">
         <v>3.4</v>
@@ -5701,16 +5707,16 @@
         <v>6.2</v>
       </c>
       <c r="K48" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="L48" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="M48" t="n">
-        <v>2.61</v>
+        <v>2.52</v>
       </c>
       <c r="N48" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="O48" t="n">
         <v>1.57</v>
@@ -5734,10 +5740,10 @@
         <v>1.67</v>
       </c>
       <c r="V48" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="W48" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="X48" t="n">
         <v>1.81</v>
@@ -5796,13 +5802,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="G49" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H49" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I49" t="n">
         <v>1.07</v>
@@ -5817,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="M49" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N49" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="O49" t="n">
         <v>1.4</v>
@@ -5844,10 +5850,10 @@
         <v>1.65</v>
       </c>
       <c r="V49" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="W49" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="X49" t="n">
         <v>1.86</v>
@@ -5906,13 +5912,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="G50" t="n">
-        <v>3.1</v>
+        <v>4.68</v>
       </c>
       <c r="H50" t="n">
-        <v>2.5</v>
+        <v>1.76</v>
       </c>
       <c r="I50" t="n">
         <v>1.1</v>
@@ -5927,7 +5933,7 @@
         <v>2.7</v>
       </c>
       <c r="M50" t="n">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="N50" t="n">
         <v>1.57</v>
@@ -5954,10 +5960,10 @@
         <v>1.39</v>
       </c>
       <c r="V50" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="W50" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="X50" t="n">
         <v>1.62</v>
@@ -6016,13 +6022,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.7</v>
+        <v>3.17</v>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>4.84</v>
       </c>
       <c r="H51" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="I51" t="n">
         <v>1.08</v>
@@ -6037,10 +6043,10 @@
         <v>2.75</v>
       </c>
       <c r="M51" t="n">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="N51" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="O51" t="n">
         <v>1.5</v>
@@ -6064,10 +6070,10 @@
         <v>1.37</v>
       </c>
       <c r="V51" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W51" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="X51" t="n">
         <v>1.74</v>
@@ -6126,13 +6132,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="G52" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H52" t="n">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="I52" t="n">
         <v>1.05</v>
@@ -6147,7 +6153,7 @@
         <v>3.1</v>
       </c>
       <c r="M52" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="N52" t="n">
         <v>1.7</v>
@@ -6174,10 +6180,10 @@
         <v>1.3</v>
       </c>
       <c r="V52" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="W52" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="X52" t="n">
         <v>1.65</v>
@@ -6236,13 +6242,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="G53" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="H53" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="I53" t="n">
         <v>1.03</v>
@@ -6257,10 +6263,10 @@
         <v>4.5</v>
       </c>
       <c r="M53" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="N53" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O53" t="n">
         <v>1.29</v>
@@ -6284,10 +6290,10 @@
         <v>2.07</v>
       </c>
       <c r="V53" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="W53" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="X53" t="n">
         <v>1.89</v>
@@ -6314,7 +6320,7 @@
         <v>1.29</v>
       </c>
       <c r="AF53" t="n">
-        <v>1.51</v>
+        <v>1.91</v>
       </c>
       <c r="AG53" t="n">
         <v>1.87</v>
@@ -6346,13 +6352,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="G54" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="I54" t="n">
         <v>1.03</v>
@@ -6367,10 +6373,10 @@
         <v>4.5</v>
       </c>
       <c r="M54" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="N54" t="n">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="O54" t="n">
         <v>1.29</v>
@@ -6394,10 +6400,10 @@
         <v>1.33</v>
       </c>
       <c r="V54" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W54" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X54" t="n">
         <v>1.96</v>
@@ -6456,13 +6462,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="G55" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H55" t="n">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="I55" t="n">
         <v>1.02</v>
@@ -6477,10 +6483,10 @@
         <v>4</v>
       </c>
       <c r="M55" t="n">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="N55" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="O55" t="n">
         <v>1.34</v>
@@ -6504,10 +6510,10 @@
         <v>1.33</v>
       </c>
       <c r="V55" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="W55" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="X55" t="n">
         <v>1.26</v>
@@ -6566,13 +6572,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="G56" t="n">
-        <v>3.2</v>
+        <v>4.66</v>
       </c>
       <c r="H56" t="n">
-        <v>4.2</v>
+        <v>2.22</v>
       </c>
       <c r="I56" t="n">
         <v>1.07</v>
@@ -6587,10 +6593,10 @@
         <v>3</v>
       </c>
       <c r="M56" t="n">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="N56" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="O56" t="n">
         <v>1.45</v>
@@ -6614,10 +6620,10 @@
         <v>1.87</v>
       </c>
       <c r="V56" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="W56" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="X56" t="n">
         <v>1.84</v>
@@ -6676,13 +6682,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="G57" t="n">
-        <v>5.5</v>
+        <v>5.46</v>
       </c>
       <c r="H57" t="n">
-        <v>11</v>
+        <v>9.42</v>
       </c>
       <c r="I57" t="n">
         <v>1.01</v>
@@ -6697,10 +6703,10 @@
         <v>5</v>
       </c>
       <c r="M57" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="N57" t="n">
-        <v>2.33</v>
+        <v>2.29</v>
       </c>
       <c r="O57" t="n">
         <v>1.24</v>
@@ -6724,10 +6730,10 @@
         <v>3.5</v>
       </c>
       <c r="V57" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="W57" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="X57" t="n">
         <v>2.25</v>
@@ -6786,13 +6792,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>5.5</v>
+        <v>7.74</v>
       </c>
       <c r="G58" t="n">
-        <v>3.7</v>
+        <v>4.09</v>
       </c>
       <c r="H58" t="n">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="I58" t="n">
         <v>1.04</v>
@@ -6807,10 +6813,10 @@
         <v>3.6</v>
       </c>
       <c r="M58" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="N58" t="n">
-        <v>1.87</v>
+        <v>1.67</v>
       </c>
       <c r="O58" t="n">
         <v>1.36</v>
@@ -6896,13 +6902,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>5</v>
+        <v>4.61</v>
       </c>
       <c r="G59" t="n">
-        <v>3.8</v>
+        <v>3.84</v>
       </c>
       <c r="H59" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="I59" t="n">
         <v>1.04</v>
@@ -6917,10 +6923,10 @@
         <v>3.67</v>
       </c>
       <c r="M59" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="N59" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="O59" t="n">
         <v>1.36</v>
@@ -6944,10 +6950,10 @@
         <v>1.16</v>
       </c>
       <c r="V59" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="W59" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="X59" t="n">
         <v>1.42</v>
@@ -7006,13 +7012,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.8</v>
+        <v>3.03</v>
       </c>
       <c r="G60" t="n">
-        <v>3.6</v>
+        <v>2.62</v>
       </c>
       <c r="H60" t="n">
-        <v>4.2</v>
+        <v>2.52</v>
       </c>
       <c r="I60" t="n">
         <v>1.05</v>
@@ -7027,10 +7033,10 @@
         <v>4.12</v>
       </c>
       <c r="M60" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="N60" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O60" t="n">
         <v>1.38</v>
@@ -7054,10 +7060,10 @@
         <v>2.2</v>
       </c>
       <c r="V60" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="W60" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="X60" t="n">
         <v>2.42</v>
@@ -7116,13 +7122,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>4.5</v>
+        <v>3.02</v>
       </c>
       <c r="G61" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="H61" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="I61" t="n">
         <v>1.05</v>
@@ -7137,10 +7143,10 @@
         <v>3.4</v>
       </c>
       <c r="M61" t="n">
-        <v>1.96</v>
+        <v>1.83</v>
       </c>
       <c r="N61" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="O61" t="n">
         <v>1.38</v>
@@ -7167,7 +7173,7 @@
         <v>1</v>
       </c>
       <c r="W61" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="X61" t="n">
         <v>1.53</v>
@@ -7226,13 +7232,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="G62" t="n">
-        <v>3.25</v>
+        <v>3.89</v>
       </c>
       <c r="H62" t="n">
-        <v>3.9</v>
+        <v>3.93</v>
       </c>
       <c r="I62" t="n">
         <v>1.05</v>
@@ -7247,10 +7253,10 @@
         <v>3.4</v>
       </c>
       <c r="M62" t="n">
-        <v>1.94</v>
+        <v>1.73</v>
       </c>
       <c r="N62" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="O62" t="n">
         <v>1.36</v>
@@ -7274,10 +7280,10 @@
         <v>1.95</v>
       </c>
       <c r="V62" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="W62" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="X62" t="n">
         <v>2.19</v>
@@ -7336,13 +7342,13 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="G63" t="n">
         <v>4</v>
       </c>
       <c r="H63" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I63" t="n">
         <v>1.01</v>
@@ -7357,10 +7363,10 @@
         <v>3.9</v>
       </c>
       <c r="M63" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="N63" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O63" t="n">
         <v>1.36</v>
@@ -7369,10 +7375,10 @@
         <v>3</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="R63" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S63" t="n">
         <v>1.11</v>
@@ -7384,10 +7390,10 @@
         <v>2.4</v>
       </c>
       <c r="V63" t="n">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="W63" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="X63" t="n">
         <v>1.93</v>
@@ -7399,13 +7405,13 @@
         <v>3.37</v>
       </c>
       <c r="AA63" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AB63" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC63" t="n">
-        <v>4.98</v>
+        <v>5.25</v>
       </c>
       <c r="AD63" t="n">
         <v>1.43</v>
@@ -7420,7 +7426,7 @@
         <v>3.08</v>
       </c>
       <c r="AH63" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="64">
@@ -7446,13 +7452,13 @@
         </is>
       </c>
       <c r="F64" t="n">
+        <v>6</v>
+      </c>
+      <c r="G64" t="n">
         <v>4.6</v>
       </c>
-      <c r="G64" t="n">
-        <v>4.4</v>
-      </c>
       <c r="H64" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="I64" t="n">
         <v>1.02</v>
@@ -7467,10 +7473,10 @@
         <v>6</v>
       </c>
       <c r="M64" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="N64" t="n">
-        <v>2.79</v>
+        <v>2.7</v>
       </c>
       <c r="O64" t="n">
         <v>1.22</v>
@@ -7494,10 +7500,10 @@
         <v>1.19</v>
       </c>
       <c r="V64" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="W64" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X64" t="n">
         <v>1.84</v>
@@ -7556,13 +7562,13 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="G65" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H65" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="I65" t="n">
         <v>1.03</v>
@@ -7577,10 +7583,10 @@
         <v>4.85</v>
       </c>
       <c r="M65" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="N65" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O65" t="n">
         <v>1.29</v>
@@ -7604,10 +7610,10 @@
         <v>1.21</v>
       </c>
       <c r="V65" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W65" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="X65" t="n">
         <v>1.9</v>
@@ -7666,13 +7672,13 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="G66" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H66" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I66" t="n">
         <v>1.02</v>
@@ -7687,10 +7693,10 @@
         <v>4</v>
       </c>
       <c r="M66" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="N66" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="O66" t="n">
         <v>1.32</v>
@@ -7714,10 +7720,10 @@
         <v>2.6</v>
       </c>
       <c r="V66" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W66" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="X66" t="n">
         <v>2.11</v>
@@ -7738,7 +7744,7 @@
         <v>4.8</v>
       </c>
       <c r="AD66" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE66" t="n">
         <v>1.3</v>
@@ -7776,13 +7782,13 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="G67" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H67" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I67" t="n">
         <v>1.05</v>
@@ -7797,10 +7803,10 @@
         <v>3.3</v>
       </c>
       <c r="M67" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="N67" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="O67" t="n">
         <v>1.44</v>
@@ -7824,10 +7830,10 @@
         <v>2.06</v>
       </c>
       <c r="V67" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="W67" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="X67" t="n">
         <v>2.14</v>
@@ -7886,13 +7892,13 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.97</v>
+        <v>2.25</v>
       </c>
       <c r="G68" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="H68" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="I68" t="n">
         <v>1.08</v>
@@ -7907,10 +7913,10 @@
         <v>2.6</v>
       </c>
       <c r="M68" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="N68" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="O68" t="n">
         <v>1.52</v>
@@ -7934,10 +7940,10 @@
         <v>1.74</v>
       </c>
       <c r="V68" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="W68" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="X68" t="n">
         <v>1.63</v>
@@ -7996,13 +8002,13 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="G69" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H69" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I69" t="n">
         <v>1.07</v>
@@ -8017,10 +8023,10 @@
         <v>2.79</v>
       </c>
       <c r="M69" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="N69" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="O69" t="n">
         <v>1.55</v>
@@ -8044,10 +8050,10 @@
         <v>1.89</v>
       </c>
       <c r="V69" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="W69" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="X69" t="n">
         <v>1.52</v>
@@ -8127,10 +8133,10 @@
         <v>2.95</v>
       </c>
       <c r="M70" t="n">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="N70" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="O70" t="n">
         <v>1.44</v>
@@ -8154,10 +8160,10 @@
         <v>1.57</v>
       </c>
       <c r="V70" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="W70" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="X70" t="n">
         <v>1.17</v>
@@ -8216,13 +8222,13 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="G71" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H71" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="I71" t="n">
         <v>1.04</v>
@@ -8237,10 +8243,10 @@
         <v>4.22</v>
       </c>
       <c r="M71" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="N71" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O71" t="n">
         <v>1.33</v>
@@ -8264,10 +8270,10 @@
         <v>1.55</v>
       </c>
       <c r="V71" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="W71" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="X71" t="n">
         <v>1.85</v>
@@ -8326,10 +8332,10 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="G72" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H72" t="n">
         <v>2.3</v>
@@ -8347,7 +8353,7 @@
         <v>2.45</v>
       </c>
       <c r="M72" t="n">
-        <v>2.43</v>
+        <v>2.45</v>
       </c>
       <c r="N72" t="n">
         <v>1.52</v>
@@ -8374,10 +8380,10 @@
         <v>1.25</v>
       </c>
       <c r="V72" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="W72" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="X72" t="n">
         <v>1.72</v>
@@ -8436,13 +8442,13 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="G73" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="H73" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I73" t="n">
         <v>1.1</v>
@@ -8451,16 +8457,16 @@
         <v>5.7</v>
       </c>
       <c r="K73" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="N73" t="n">
         <v>1.52</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="M73" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="N73" t="n">
-        <v>1.39</v>
       </c>
       <c r="O73" t="n">
         <v>1.57</v>
@@ -8484,10 +8490,10 @@
         <v>1.52</v>
       </c>
       <c r="V73" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W73" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="X73" t="n">
         <v>1.47</v>
@@ -8567,10 +8573,10 @@
         <v>3.25</v>
       </c>
       <c r="M74" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="N74" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="O74" t="n">
         <v>1.4</v>
@@ -8594,10 +8600,10 @@
         <v>2.8</v>
       </c>
       <c r="V74" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="W74" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="X74" t="n">
         <v>1.62</v>
@@ -8656,10 +8662,10 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="G75" t="n">
-        <v>5.8</v>
+        <v>5.75</v>
       </c>
       <c r="H75" t="n">
         <v>13</v>
@@ -8677,10 +8683,10 @@
         <v>5</v>
       </c>
       <c r="M75" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="N75" t="n">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="O75" t="n">
         <v>1.24</v>
@@ -8704,10 +8710,10 @@
         <v>4.2</v>
       </c>
       <c r="V75" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="W75" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="X75" t="n">
         <v>2.11</v>
@@ -8766,10 +8772,10 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H76" t="n">
         <v>3.1</v>
@@ -8787,10 +8793,10 @@
         <v>2.7</v>
       </c>
       <c r="M76" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="N76" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="O76" t="n">
         <v>1.53</v>
@@ -8814,10 +8820,10 @@
         <v>1.5</v>
       </c>
       <c r="V76" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="W76" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="X76" t="n">
         <v>1.03</v>
@@ -8876,7 +8882,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="G77" t="n">
         <v>4.6</v>
@@ -8897,10 +8903,10 @@
         <v>4.45</v>
       </c>
       <c r="M77" t="n">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="N77" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="O77" t="n">
         <v>1.29</v>
@@ -8924,10 +8930,10 @@
         <v>3.06</v>
       </c>
       <c r="V77" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="W77" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="X77" t="n">
         <v>1.84</v>
@@ -8986,13 +8992,13 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="G78" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H78" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="I78" t="n">
         <v>1.04</v>
@@ -9007,10 +9013,10 @@
         <v>4.3</v>
       </c>
       <c r="M78" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="N78" t="n">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="O78" t="n">
         <v>1.32</v>
@@ -9034,10 +9040,10 @@
         <v>1.35</v>
       </c>
       <c r="V78" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="W78" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X78" t="n">
         <v>1.54</v>
@@ -9096,13 +9102,13 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I79" t="n">
         <v>1.09</v>
@@ -9117,10 +9123,10 @@
         <v>2.7</v>
       </c>
       <c r="M79" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="N79" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="O79" t="n">
         <v>1.53</v>
@@ -9144,10 +9150,10 @@
         <v>1.57</v>
       </c>
       <c r="V79" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="W79" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="X79" t="n">
         <v>1.96</v>
@@ -9206,13 +9212,13 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="H80" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="I80" t="n">
         <v>1.1</v>
@@ -9227,10 +9233,10 @@
         <v>2.7</v>
       </c>
       <c r="M80" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="N80" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="O80" t="n">
         <v>1.51</v>
@@ -9254,10 +9260,10 @@
         <v>1.6</v>
       </c>
       <c r="V80" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="W80" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="X80" t="n">
         <v>1.87</v>
@@ -9322,7 +9328,7 @@
         <v>3.7</v>
       </c>
       <c r="H81" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="I81" t="n">
         <v>1.05</v>
@@ -9337,10 +9343,10 @@
         <v>3.63</v>
       </c>
       <c r="M81" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="N81" t="n">
-        <v>2.01</v>
+        <v>1.91</v>
       </c>
       <c r="O81" t="n">
         <v>1.38</v>
@@ -9364,10 +9370,10 @@
         <v>2.2</v>
       </c>
       <c r="V81" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="W81" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="X81" t="n">
         <v>1.91</v>
@@ -9426,13 +9432,13 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="G82" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H82" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I82" t="n">
         <v>1.04</v>
@@ -9447,10 +9453,10 @@
         <v>3.75</v>
       </c>
       <c r="M82" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="N82" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="O82" t="n">
         <v>1.36</v>
@@ -9474,10 +9480,10 @@
         <v>1.88</v>
       </c>
       <c r="V82" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="W82" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="X82" t="n">
         <v>1.68</v>
@@ -9536,13 +9542,13 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="G83" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H83" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I83" t="n">
         <v>1.11</v>
@@ -9551,16 +9557,16 @@
         <v>6.5</v>
       </c>
       <c r="K83" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="L83" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="M83" t="n">
-        <v>2.51</v>
+        <v>2.52</v>
       </c>
       <c r="N83" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="O83" t="n">
         <v>1.57</v>
@@ -9587,7 +9593,7 @@
         <v>1.08</v>
       </c>
       <c r="W83" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="X83" t="n">
         <v>1.25</v>
@@ -9667,7 +9673,7 @@
         <v>4.5</v>
       </c>
       <c r="M84" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="N84" t="n">
         <v>2.25</v>
@@ -9694,10 +9700,10 @@
         <v>3.2</v>
       </c>
       <c r="V84" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="W84" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="X84" t="n">
         <v>2.34</v>
@@ -9734,8 +9740,10 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>8595</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
       </c>
       <c r="B85" s="2" t="n">
         <v>44962.70833333334</v>
@@ -9805,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="W85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X85" t="n">
         <v>0</v>
@@ -9864,13 +9872,13 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="G86" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H86" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I86" t="n">
         <v>1.07</v>
@@ -9885,10 +9893,10 @@
         <v>3</v>
       </c>
       <c r="M86" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="N86" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="O86" t="n">
         <v>1.4</v>
@@ -9912,10 +9920,10 @@
         <v>1.55</v>
       </c>
       <c r="V86" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W86" t="n">
         <v>1.22</v>
-      </c>
-      <c r="W86" t="n">
-        <v>1.25</v>
       </c>
       <c r="X86" t="n">
         <v>1.61</v>
@@ -9974,13 +9982,13 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G87" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H87" t="n">
-        <v>3.1</v>
+        <v>3.43</v>
       </c>
       <c r="I87" t="n">
         <v>1.03</v>
@@ -9995,10 +10003,10 @@
         <v>3.3</v>
       </c>
       <c r="M87" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="N87" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="O87" t="n">
         <v>1.36</v>
@@ -10022,7 +10030,7 @@
         <v>1.75</v>
       </c>
       <c r="V87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W87" t="n">
         <v>0</v>
@@ -10062,8 +10070,10 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>8937</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
       </c>
       <c r="B88" s="2" t="n">
         <v>44962.75</v>
@@ -10082,13 +10092,13 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2.42</v>
+        <v>2.88</v>
       </c>
       <c r="G88" t="n">
-        <v>3.02</v>
+        <v>2.75</v>
       </c>
       <c r="H88" t="n">
-        <v>3.08</v>
+        <v>2.6</v>
       </c>
       <c r="I88" t="n">
         <v>1.07</v>
@@ -10103,10 +10113,10 @@
         <v>2.65</v>
       </c>
       <c r="M88" t="n">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="N88" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="O88" t="n">
         <v>1.5</v>
@@ -10130,10 +10140,10 @@
         <v>1.32</v>
       </c>
       <c r="V88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X88" t="n">
         <v>0</v>
@@ -10170,8 +10180,10 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>8783</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
       </c>
       <c r="B89" s="2" t="n">
         <v>44962.79166666666</v>
@@ -10190,10 +10202,10 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="G89" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H89" t="n">
         <v>2.5</v>
@@ -10238,10 +10250,10 @@
         <v>0</v>
       </c>
       <c r="V89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X89" t="n">
         <v>0</v>
@@ -10278,8 +10290,10 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>8595</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
       </c>
       <c r="B90" s="2" t="n">
         <v>44962.80208333334</v>
@@ -10346,10 +10360,10 @@
         <v>2.65</v>
       </c>
       <c r="V90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X90" t="n">
         <v>1.71</v>
@@ -10386,8 +10400,10 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>8783</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
       </c>
       <c r="B91" s="2" t="n">
         <v>44962.8125</v>
@@ -10537,10 +10553,10 @@
         <v>3.72</v>
       </c>
       <c r="M92" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="N92" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="O92" t="n">
         <v>1.33</v>
@@ -10604,8 +10620,10 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>8937</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
       </c>
       <c r="B93" s="2" t="n">
         <v>44962.875</v>
@@ -10624,13 +10642,13 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="G93" t="n">
-        <v>3.66</v>
+        <v>3.65</v>
       </c>
       <c r="H93" t="n">
-        <v>4.56</v>
+        <v>5.58</v>
       </c>
       <c r="I93" t="n">
         <v>1.06</v>
@@ -10645,10 +10663,10 @@
         <v>3.2</v>
       </c>
       <c r="M93" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="N93" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="O93" t="n">
         <v>1.41</v>
